--- a/PageRlements/elements.xlsx
+++ b/PageRlements/elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projetct\myauth\PageRlements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5D3504-C5B8-4EA7-AE8B-550F86F4B672}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0ED711-931B-4DB6-AC8F-18A8A87413A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14085" yWindow="2475" windowWidth="13815" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>元素定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadFromFileId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,16 +384,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -396,6 +409,17 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
